--- a/biology/Histoire de la zoologie et de la botanique/John_Gwyn_Jeffreys/John_Gwyn_Jeffreys.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Gwyn_Jeffreys/John_Gwyn_Jeffreys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Gwyn Jeffreys est un  conchyliologiste britannique, né le 18 janvier 1809 à Swansea et mort le 21 janvier 1885 à Londres.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet avocat-conseil de Londres se passionne dès son jeune âge pour la conchyliologie. Il ne se contente pas de réaliser une collection mais s’intéresse à tous les aspects de la biologie des mollusques. Il se retire en 1856 et commence une série d’opérations de dragage à bord du yacht, l’Osprey, de son beau-frère qu’il rachète. Accompagné par d’autres spécialistes de la vie marine comme Charles William Peach (1800-1886), le révérend Alfred Merle Norman (1831-1918), George Barlee (1794-1861) ou Edward Waller (1803-1873), il drague les fonds des eaux baignant les Shetland, l’ouest de l’Écosse, la Manche ou le Groenland. William Healey Dall (1845-1927) achète sa collection pour le compte du National Museum of Natural History. Il a été chargé de la direction scientifique de la première croisière du H.M.S. Porcupine entre mai et juillet 1869 le long des côtes de l'Irlande et de l’Écosse[1]. C'est à cette occasion que les premiers thermomètres a maxima et a minima de Miller-Casella ont été essayés[2]. Ils seront par la suite abondamment utilisés lors de l'expédition du H.M.S. Challenger.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet avocat-conseil de Londres se passionne dès son jeune âge pour la conchyliologie. Il ne se contente pas de réaliser une collection mais s’intéresse à tous les aspects de la biologie des mollusques. Il se retire en 1856 et commence une série d’opérations de dragage à bord du yacht, l’Osprey, de son beau-frère qu’il rachète. Accompagné par d’autres spécialistes de la vie marine comme Charles William Peach (1800-1886), le révérend Alfred Merle Norman (1831-1918), George Barlee (1794-1861) ou Edward Waller (1803-1873), il drague les fonds des eaux baignant les Shetland, l’ouest de l’Écosse, la Manche ou le Groenland. William Healey Dall (1845-1927) achète sa collection pour le compte du National Museum of Natural History. Il a été chargé de la direction scientifique de la première croisière du H.M.S. Porcupine entre mai et juillet 1869 le long des côtes de l'Irlande et de l’Écosse. C'est à cette occasion que les premiers thermomètres a maxima et a minima de Miller-Casella ont été essayés. Ils seront par la suite abondamment utilisés lors de l'expédition du H.M.S. Challenger.
 Il devient membre de la Royal Society le 2 avril 1840. Il est notamment l’auteur de British Conchology, or an account of the Mollusca which now inhabit the British Isles and the surrounding seas (cinq volumes, 1862 à 1865).
 </t>
         </is>
